--- a/Experimentos/teste_geral/Dataset5/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset5/statistic_average_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{73711B81-DA48-42FE-9765-CDC17B3A9B1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F89CDA-02F9-452C-AE27-0A46C6E72187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -90,11 +84,17 @@
   <si>
     <t>PUZZLE 5 - AVERAGE FITNESS</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,24 +644,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
-  <autoFilter ref="A2:L258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
+  <autoFilter ref="A2:L258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Average:"/>
-    <tableColumn id="10" name="StdDev:"/>
-    <tableColumn id="11" name="Time Best av:"/>
-    <tableColumn id="12" name="Time Total av:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StdDev:"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Time Best av:"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Time Total av:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:L258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1016,16 +1016,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1188,7 +1188,7 @@
         <v>3500</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>3500</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0.8</v>
@@ -1258,10 +1258,10 @@
         <v>3500</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -1293,10 +1293,10 @@
         <v>3500</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0.7</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -1398,7 +1398,7 @@
         <v>3500</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0.7</v>
@@ -1468,7 +1468,7 @@
         <v>3500</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>3500</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1538,10 +1538,10 @@
         <v>3500</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0.8</v>
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0.8</v>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0.8</v>
@@ -1678,10 +1678,10 @@
         <v>3500</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0.7</v>
@@ -1713,10 +1713,10 @@
         <v>3500</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0.8</v>
@@ -1748,10 +1748,10 @@
         <v>3500</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0.7</v>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0.7</v>
@@ -1818,7 +1818,7 @@
         <v>3500</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>3500</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>3500</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0.7</v>
@@ -1961,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0.7</v>
@@ -1996,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0.7</v>
@@ -2028,10 +2028,10 @@
         <v>3500</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0.8</v>
@@ -2063,10 +2063,10 @@
         <v>3500</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0.7</v>
@@ -2098,7 +2098,7 @@
         <v>3500</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2133,10 +2133,10 @@
         <v>3500</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0.7</v>
@@ -2168,7 +2168,7 @@
         <v>3500</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2203,10 +2203,10 @@
         <v>3500</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0.8</v>
@@ -2238,10 +2238,10 @@
         <v>3500</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0.8</v>
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0.8</v>
@@ -2308,10 +2308,10 @@
         <v>3500</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0.7</v>
@@ -2378,10 +2378,10 @@
         <v>3500</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0.7</v>
@@ -2413,10 +2413,10 @@
         <v>3500</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0.8</v>
@@ -2448,10 +2448,10 @@
         <v>3500</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>0.8</v>
@@ -2483,10 +2483,10 @@
         <v>3500</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>0.7</v>
@@ -2518,10 +2518,10 @@
         <v>3500</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0.8</v>
@@ -2553,10 +2553,10 @@
         <v>3500</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>0.8</v>
@@ -2588,10 +2588,10 @@
         <v>3500</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0.7</v>
@@ -2623,10 +2623,10 @@
         <v>3500</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0.7</v>
@@ -2661,28 +2661,28 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I49">
-        <v>210.68</v>
+        <v>204.8</v>
       </c>
       <c r="J49">
-        <v>14.4311330116522</v>
+        <v>10.9105453575886</v>
       </c>
       <c r="K49">
-        <v>8634.18</v>
+        <v>5950.42</v>
       </c>
       <c r="L49">
-        <v>9742.84</v>
+        <v>8365.16</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,28 +2696,28 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0.7</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
-        <v>217.2</v>
+        <v>206.32</v>
       </c>
       <c r="J50">
-        <v>13.541048703848601</v>
+        <v>8.9653555423083997</v>
       </c>
       <c r="K50">
-        <v>8892.5400000000009</v>
+        <v>5703.1</v>
       </c>
       <c r="L50">
-        <v>10005.5</v>
+        <v>8156.84</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,28 +2731,28 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>219.92</v>
+        <v>214.8</v>
       </c>
       <c r="J51">
-        <v>32.082294182305603</v>
+        <v>12.086355943790499</v>
       </c>
       <c r="K51">
-        <v>6379.5</v>
+        <v>7049.96</v>
       </c>
       <c r="L51">
-        <v>7704.86</v>
+        <v>8276.1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,33 +2766,33 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="I52">
-        <v>231.04</v>
+        <v>214.84</v>
       </c>
       <c r="J52">
-        <v>13.237764161670199</v>
+        <v>24.5734490863614</v>
       </c>
       <c r="K52">
-        <v>11275.22</v>
+        <v>6314.76</v>
       </c>
       <c r="L52">
-        <v>12701.36</v>
+        <v>7290.44</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>3500</v>
@@ -2801,28 +2801,28 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>232.72</v>
+        <v>216.8</v>
       </c>
       <c r="J53">
-        <v>16.276412381111498</v>
+        <v>13.2363136862194</v>
       </c>
       <c r="K53">
-        <v>4099.5200000000004</v>
+        <v>6864.6</v>
       </c>
       <c r="L53">
-        <v>4547.18</v>
+        <v>8089.14</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,31 +2833,31 @@
         <v>3500</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>0.8</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>233.6</v>
+        <v>219.36</v>
       </c>
       <c r="J54">
-        <v>16.661332479726799</v>
+        <v>14.791565163970899</v>
       </c>
       <c r="K54">
-        <v>8712.16</v>
+        <v>6991.28</v>
       </c>
       <c r="L54">
-        <v>9407.7999999999993</v>
+        <v>7928.98</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -2883,21 +2883,21 @@
         <v>0.2</v>
       </c>
       <c r="I55">
-        <v>234.88</v>
+        <v>219.92</v>
       </c>
       <c r="J55">
-        <v>14.838652229902801</v>
+        <v>32.082294182305603</v>
       </c>
       <c r="K55">
-        <v>5778.18</v>
+        <v>6379.5</v>
       </c>
       <c r="L55">
-        <v>7213.88</v>
+        <v>7704.86</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>3500</v>
@@ -2906,28 +2906,28 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G56">
         <v>0.2</v>
       </c>
       <c r="I56">
-        <v>235.6</v>
+        <v>222.52</v>
       </c>
       <c r="J56">
-        <v>14.6860478005486</v>
+        <v>12.5143757335314</v>
       </c>
       <c r="K56">
-        <v>3928.74</v>
+        <v>5446.9</v>
       </c>
       <c r="L56">
-        <v>4388.72</v>
+        <v>6697.14</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2938,31 +2938,31 @@
         <v>3500</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G57">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I57">
-        <v>236.2</v>
+        <v>224.28</v>
       </c>
       <c r="J57">
-        <v>14.289856542317001</v>
+        <v>14.6315276030905</v>
       </c>
       <c r="K57">
-        <v>7508.98</v>
+        <v>5458.5</v>
       </c>
       <c r="L57">
-        <v>8346.86</v>
+        <v>6706.92</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,31 +2973,31 @@
         <v>3500</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I58">
-        <v>236.44</v>
+        <v>226.28</v>
       </c>
       <c r="J58">
-        <v>14.2227423516001</v>
+        <v>14.176092550487899</v>
       </c>
       <c r="K58">
-        <v>9006</v>
+        <v>6964.8</v>
       </c>
       <c r="L58">
-        <v>10012.76</v>
+        <v>7726.06</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,28 +3011,28 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G59">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I59">
-        <v>237.12</v>
+        <v>234.04</v>
       </c>
       <c r="J59">
-        <v>11.981051706757601</v>
+        <v>15.049199314249201</v>
       </c>
       <c r="K59">
-        <v>3727.08</v>
+        <v>5012.42</v>
       </c>
       <c r="L59">
-        <v>4245.2</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3043,31 +3043,31 @@
         <v>3500</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G60">
         <v>0.4</v>
       </c>
       <c r="I60">
-        <v>237.52</v>
+        <v>234.08</v>
       </c>
       <c r="J60">
-        <v>44.310829376124197</v>
+        <v>11.764080924577099</v>
       </c>
       <c r="K60">
-        <v>2541.04</v>
+        <v>5007.3</v>
       </c>
       <c r="L60">
-        <v>3616.18</v>
+        <v>5776.28</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3081,98 +3081,98 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G61">
         <v>0.2</v>
       </c>
       <c r="I61">
-        <v>240.2</v>
+        <v>234.88</v>
       </c>
       <c r="J61">
-        <v>13.846299144536699</v>
+        <v>14.838652229902801</v>
       </c>
       <c r="K61">
-        <v>8772.42</v>
+        <v>5778.18</v>
       </c>
       <c r="L61">
-        <v>9981.92</v>
+        <v>7213.88</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>3500</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>240.24</v>
+        <v>237.52</v>
       </c>
       <c r="J62">
-        <v>57.3056925619087</v>
+        <v>44.310829376124197</v>
       </c>
       <c r="K62">
-        <v>7537.12</v>
+        <v>2541.04</v>
       </c>
       <c r="L62">
-        <v>8347.32</v>
+        <v>3616.18</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B63">
         <v>3500</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G63">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I63">
-        <v>243.56</v>
+        <v>237.84</v>
       </c>
       <c r="J63">
-        <v>15.467591926347099</v>
+        <v>15.7725838086218</v>
       </c>
       <c r="K63">
-        <v>3955.1</v>
+        <v>7801.76</v>
       </c>
       <c r="L63">
-        <v>4227.8599999999997</v>
+        <v>8609.76</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3186,74 +3186,74 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G64">
         <v>0.2</v>
       </c>
       <c r="I64">
-        <v>244.24</v>
+        <v>241.36</v>
       </c>
       <c r="J64">
-        <v>39.684032053207503</v>
+        <v>15.987194875899901</v>
       </c>
       <c r="K64">
-        <v>4019.48</v>
+        <v>5160.6000000000004</v>
       </c>
       <c r="L64">
-        <v>4586.3999999999996</v>
+        <v>5745.2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>3500</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <v>0.4</v>
       </c>
       <c r="I65">
-        <v>245.24</v>
+        <v>242</v>
       </c>
       <c r="J65">
-        <v>14.685448580142101</v>
+        <v>8.9084229805280302</v>
       </c>
       <c r="K65">
-        <v>6613.8</v>
+        <v>3318</v>
       </c>
       <c r="L65">
-        <v>7280.18</v>
+        <v>5578.62</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>3500</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -3262,22 +3262,22 @@
         <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G66">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I66">
-        <v>250.24</v>
+        <v>242.56</v>
       </c>
       <c r="J66">
-        <v>15.3604166610154</v>
+        <v>13.564895871329</v>
       </c>
       <c r="K66">
-        <v>8931.6200000000008</v>
+        <v>4196.96</v>
       </c>
       <c r="L66">
-        <v>10039.4</v>
+        <v>4856.58</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3288,106 +3288,106 @@
         <v>3500</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G67">
         <v>0.4</v>
       </c>
       <c r="I67">
-        <v>251.16</v>
+        <v>242.56</v>
       </c>
       <c r="J67">
-        <v>16.263283801249901</v>
+        <v>9.1567679887611</v>
       </c>
       <c r="K67">
-        <v>4198.88</v>
+        <v>3547.82</v>
       </c>
       <c r="L67">
-        <v>4605.68</v>
+        <v>5811.66</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B68">
         <v>3500</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G68">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I68">
-        <v>252.48</v>
+        <v>242.84</v>
       </c>
       <c r="J68">
-        <v>16.688007670180401</v>
+        <v>15.2739778708756</v>
       </c>
       <c r="K68">
-        <v>3231.16</v>
+        <v>7201.12</v>
       </c>
       <c r="L68">
-        <v>4089.46</v>
+        <v>8096.98</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B69">
         <v>3500</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G69">
         <v>0.4</v>
       </c>
       <c r="I69">
-        <v>254.8</v>
+        <v>243.92</v>
       </c>
       <c r="J69">
-        <v>14.4554487996741</v>
+        <v>14.237752631648</v>
       </c>
       <c r="K69">
-        <v>3995.4</v>
+        <v>5791.5</v>
       </c>
       <c r="L69">
-        <v>4471.84</v>
+        <v>7053.34</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B70">
         <v>3500</v>
@@ -3396,28 +3396,28 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G70">
         <v>0.2</v>
       </c>
       <c r="I70">
-        <v>255.12</v>
+        <v>244.36</v>
       </c>
       <c r="J70">
-        <v>18.0317941425693</v>
+        <v>11.9444715245171</v>
       </c>
       <c r="K70">
-        <v>3547.26</v>
+        <v>6621.68</v>
       </c>
       <c r="L70">
-        <v>4437.5</v>
+        <v>7915.98</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3431,138 +3431,138 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G71">
         <v>0.2</v>
       </c>
       <c r="I71">
-        <v>255.28</v>
+        <v>244.72</v>
       </c>
       <c r="J71">
-        <v>13.8434677736468</v>
+        <v>19.558159422604099</v>
       </c>
       <c r="K71">
-        <v>3991.6</v>
+        <v>5152.84</v>
       </c>
       <c r="L71">
-        <v>4393.66</v>
+        <v>5612.82</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>3500</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="E72">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G72">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I72">
-        <v>258.44</v>
+        <v>245.04</v>
       </c>
       <c r="J72">
-        <v>17.551250667687398</v>
+        <v>15.7543136949852</v>
       </c>
       <c r="K72">
-        <v>8934.16</v>
+        <v>4144.66</v>
       </c>
       <c r="L72">
-        <v>10207.02</v>
+        <v>4834.6400000000003</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>3500</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G73">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I73">
-        <v>259.52</v>
+        <v>246.84</v>
       </c>
       <c r="J73">
-        <v>14.4696095317047</v>
+        <v>13.7990724325948</v>
       </c>
       <c r="K73">
-        <v>3654.88</v>
+        <v>6251.14</v>
       </c>
       <c r="L73">
-        <v>4156.88</v>
+        <v>7740.52</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>3500</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>259.76</v>
+        <v>247.16</v>
       </c>
       <c r="J74">
-        <v>16.446957165384699</v>
+        <v>16.852726782333999</v>
       </c>
       <c r="K74">
-        <v>7437.86</v>
+        <v>4090.8</v>
       </c>
       <c r="L74">
-        <v>8861.52</v>
+        <v>4772.5200000000004</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B75">
         <v>3500</v>
@@ -3571,28 +3571,28 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I75">
-        <v>262.24</v>
+        <v>249.44</v>
       </c>
       <c r="J75">
-        <v>15.9481158761779</v>
+        <v>12.152629345125201</v>
       </c>
       <c r="K75">
-        <v>3812.34</v>
+        <v>3907.96</v>
       </c>
       <c r="L75">
-        <v>8175.08</v>
+        <v>4502.76</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3603,42 +3603,42 @@
         <v>3500</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G76">
         <v>0.4</v>
       </c>
       <c r="I76">
-        <v>262.56</v>
+        <v>251.32</v>
       </c>
       <c r="J76">
-        <v>13.1699050869776</v>
+        <v>15.049837208421801</v>
       </c>
       <c r="K76">
-        <v>8565.1</v>
+        <v>5392.74</v>
       </c>
       <c r="L76">
-        <v>9387.1</v>
+        <v>6946.74</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B77">
         <v>3500</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -3647,22 +3647,22 @@
         <v>0.7</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G77">
         <v>0.4</v>
       </c>
       <c r="I77">
-        <v>263.27999999999997</v>
+        <v>252.32</v>
       </c>
       <c r="J77">
-        <v>13.9356234162666</v>
+        <v>15.2071562101531</v>
       </c>
       <c r="K77">
-        <v>3556.88</v>
+        <v>5824.2</v>
       </c>
       <c r="L77">
-        <v>3931.84</v>
+        <v>6754.34</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3676,28 +3676,28 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G78">
         <v>0.2</v>
       </c>
       <c r="I78">
-        <v>266.16000000000003</v>
+        <v>252.48</v>
       </c>
       <c r="J78">
-        <v>15.6708136355455</v>
+        <v>16.688007670180401</v>
       </c>
       <c r="K78">
-        <v>3920.72</v>
+        <v>3231.16</v>
       </c>
       <c r="L78">
-        <v>4358.22</v>
+        <v>4089.46</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,25 +3714,25 @@
         <v>10</v>
       </c>
       <c r="E79">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G79">
         <v>0.2</v>
       </c>
       <c r="I79">
-        <v>266.52</v>
+        <v>255.12</v>
       </c>
       <c r="J79">
-        <v>51.363504553330401</v>
+        <v>18.0317941425693</v>
       </c>
       <c r="K79">
-        <v>4037.08</v>
+        <v>3547.26</v>
       </c>
       <c r="L79">
-        <v>4599.2</v>
+        <v>4437.5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3743,31 +3743,31 @@
         <v>3500</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G80">
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>268.72000000000003</v>
+        <v>256.88</v>
       </c>
       <c r="J80">
-        <v>16.712917160088999</v>
+        <v>14.9995199923197</v>
       </c>
       <c r="K80">
-        <v>3789.76</v>
+        <v>2158.9</v>
       </c>
       <c r="L80">
-        <v>4303.3</v>
+        <v>3126.86</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>3500</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3787,22 +3787,22 @@
         <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>268.8</v>
+        <v>258.12</v>
       </c>
       <c r="J81">
-        <v>17.613631085043099</v>
+        <v>16.9158387317921</v>
       </c>
       <c r="K81">
-        <v>5529.82</v>
+        <v>5555.74</v>
       </c>
       <c r="L81">
-        <v>6962</v>
+        <v>6848.68</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3813,31 +3813,31 @@
         <v>3500</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G82">
         <v>0.4</v>
       </c>
       <c r="I82">
-        <v>272.88</v>
+        <v>258.24</v>
       </c>
       <c r="J82">
-        <v>15.990797353477999</v>
+        <v>15.8827705391723</v>
       </c>
       <c r="K82">
-        <v>2211.8200000000002</v>
+        <v>3737.78</v>
       </c>
       <c r="L82">
-        <v>3298.68</v>
+        <v>4187.2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3848,13 +3848,13 @@
         <v>3500</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -3863,21 +3863,21 @@
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>272.95999999999998</v>
+        <v>259.76</v>
       </c>
       <c r="J83">
-        <v>16.080994994091601</v>
+        <v>16.446957165384699</v>
       </c>
       <c r="K83">
-        <v>4796.1000000000004</v>
+        <v>7437.86</v>
       </c>
       <c r="L83">
-        <v>8568.6200000000008</v>
+        <v>8861.52</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>3500</v>
@@ -3886,28 +3886,28 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G84">
         <v>0.2</v>
       </c>
       <c r="I84">
-        <v>273.48</v>
+        <v>260.44</v>
       </c>
       <c r="J84">
-        <v>75.174261552741498</v>
+        <v>13.6134639236308</v>
       </c>
       <c r="K84">
-        <v>6723.54</v>
+        <v>4534.66</v>
       </c>
       <c r="L84">
-        <v>8422.1</v>
+        <v>5717.8</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3918,31 +3918,31 @@
         <v>3500</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G85">
         <v>0.4</v>
       </c>
       <c r="I85">
-        <v>275.44</v>
+        <v>262.24</v>
       </c>
       <c r="J85">
-        <v>15.1210581640307</v>
+        <v>15.9481158761779</v>
       </c>
       <c r="K85">
-        <v>7624.04</v>
+        <v>3812.34</v>
       </c>
       <c r="L85">
-        <v>8334.7000000000007</v>
+        <v>8175.08</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3953,31 +3953,31 @@
         <v>3500</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G86">
         <v>0.4</v>
       </c>
       <c r="I86">
-        <v>279.52</v>
+        <v>263.56</v>
       </c>
       <c r="J86">
-        <v>20.421792281775801</v>
+        <v>16.0563507684654</v>
       </c>
       <c r="K86">
-        <v>2677.96</v>
+        <v>2172.62</v>
       </c>
       <c r="L86">
-        <v>3770.84</v>
+        <v>3184.5</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3988,171 +3988,171 @@
         <v>3500</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="E87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G87">
         <v>0.4</v>
       </c>
       <c r="I87">
-        <v>280.64</v>
+        <v>263.64</v>
       </c>
       <c r="J87">
-        <v>16.754414343688602</v>
+        <v>17.249649271796802</v>
       </c>
       <c r="K87">
-        <v>3392.26</v>
+        <v>2887.32</v>
       </c>
       <c r="L87">
-        <v>3887.22</v>
+        <v>3557.24</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>3500</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I88">
-        <v>280.83999999999997</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="J88">
-        <v>23.0966317890726</v>
+        <v>16.951696080333601</v>
       </c>
       <c r="K88">
-        <v>4655.5200000000004</v>
+        <v>3549.58</v>
       </c>
       <c r="L88">
-        <v>6636.28</v>
+        <v>4006.78</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B89">
         <v>3500</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>0.4</v>
       </c>
       <c r="I89">
-        <v>282.72000000000003</v>
+        <v>266.24</v>
       </c>
       <c r="J89">
-        <v>15.334979621766699</v>
+        <v>14.072043206300901</v>
       </c>
       <c r="K89">
-        <v>3840.4</v>
+        <v>5437.34</v>
       </c>
       <c r="L89">
-        <v>4504.22</v>
+        <v>8455.98</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>3500</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>0.7</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G90">
         <v>0.2</v>
       </c>
       <c r="I90">
-        <v>283.04000000000002</v>
+        <v>268.48</v>
       </c>
       <c r="J90">
-        <v>19.271699458013501</v>
+        <v>15.1132259957958</v>
       </c>
       <c r="K90">
-        <v>3965.72</v>
+        <v>4380.46</v>
       </c>
       <c r="L90">
-        <v>6870.14</v>
+        <v>5564.8</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G91">
         <v>0.4</v>
       </c>
       <c r="I91">
-        <v>283.04000000000002</v>
+        <v>268.64</v>
       </c>
       <c r="J91">
-        <v>39.890329655193298</v>
+        <v>18.077344937794301</v>
       </c>
       <c r="K91">
-        <v>5409.16</v>
+        <v>2978.02</v>
       </c>
       <c r="L91">
-        <v>7507.16</v>
+        <v>3666.98</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4163,31 +4163,31 @@
         <v>3500</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I92">
-        <v>286.08</v>
+        <v>268.8</v>
       </c>
       <c r="J92">
-        <v>14.9396653242299</v>
+        <v>17.613631085043099</v>
       </c>
       <c r="K92">
-        <v>3089.54</v>
+        <v>5529.82</v>
       </c>
       <c r="L92">
-        <v>8222.94</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4198,31 +4198,31 @@
         <v>3500</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G93">
         <v>0.2</v>
       </c>
       <c r="I93">
-        <v>286.83999999999997</v>
+        <v>271.32</v>
       </c>
       <c r="J93">
-        <v>22.210231876322201</v>
+        <v>24.620674239345998</v>
       </c>
       <c r="K93">
-        <v>3342.56</v>
+        <v>5435.82</v>
       </c>
       <c r="L93">
-        <v>9144.1</v>
+        <v>7829.2</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,31 +4233,31 @@
         <v>3500</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G94">
         <v>0.4</v>
       </c>
       <c r="I94">
-        <v>287.83999999999997</v>
+        <v>271.88</v>
       </c>
       <c r="J94">
-        <v>18.193801142147201</v>
+        <v>17.7106069912919</v>
       </c>
       <c r="K94">
-        <v>2718.48</v>
+        <v>3050.94</v>
       </c>
       <c r="L94">
-        <v>4352.66</v>
+        <v>3657.18</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4268,31 +4268,31 @@
         <v>3500</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
-        <v>289.36</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="J95">
-        <v>17.633785753490301</v>
+        <v>12.986146464598299</v>
       </c>
       <c r="K95">
-        <v>2737.2</v>
+        <v>4917.38</v>
       </c>
       <c r="L95">
-        <v>8270.2000000000007</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4303,10 +4303,10 @@
         <v>3500</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>0.7</v>
@@ -4318,21 +4318,21 @@
         <v>0.4</v>
       </c>
       <c r="I96">
-        <v>290.52</v>
+        <v>272.88</v>
       </c>
       <c r="J96">
-        <v>18.206855851574101</v>
+        <v>15.990797353477999</v>
       </c>
       <c r="K96">
-        <v>2515.44</v>
+        <v>2211.8200000000002</v>
       </c>
       <c r="L96">
-        <v>3612.42</v>
+        <v>3298.68</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>3500</v>
@@ -4341,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>0.7</v>
@@ -4353,51 +4353,51 @@
         <v>0.4</v>
       </c>
       <c r="I97">
-        <v>294.8</v>
+        <v>272.95999999999998</v>
       </c>
       <c r="J97">
-        <v>16.262841080204801</v>
+        <v>16.080994994091601</v>
       </c>
       <c r="K97">
-        <v>2684.54</v>
+        <v>4796.1000000000004</v>
       </c>
       <c r="L97">
-        <v>4666.26</v>
+        <v>8568.6200000000008</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B98">
         <v>3500</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G98">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I98">
-        <v>295.95999999999998</v>
+        <v>273.04000000000002</v>
       </c>
       <c r="J98">
-        <v>14.133591192616199</v>
+        <v>17.5099514562433</v>
       </c>
       <c r="K98">
-        <v>4021.78</v>
+        <v>4054.92</v>
       </c>
       <c r="L98">
-        <v>4434.62</v>
+        <v>7099.86</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4408,101 +4408,101 @@
         <v>3500</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
       </c>
       <c r="E99">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G99">
         <v>0.2</v>
       </c>
       <c r="I99">
-        <v>296.72000000000003</v>
+        <v>273.64</v>
       </c>
       <c r="J99">
-        <v>16.879620848822402</v>
+        <v>15.8174081315492</v>
       </c>
       <c r="K99">
-        <v>3257.48</v>
+        <v>3558.94</v>
       </c>
       <c r="L99">
-        <v>6952.38</v>
+        <v>6791.04</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B100">
         <v>3500</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I100">
-        <v>296.95999999999998</v>
+        <v>275.04000000000002</v>
       </c>
       <c r="J100">
-        <v>19.988956951276801</v>
+        <v>39.874282438684702</v>
       </c>
       <c r="K100">
-        <v>1888.52</v>
+        <v>5846.66</v>
       </c>
       <c r="L100">
-        <v>3248.2</v>
+        <v>7859.84</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <v>3500</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G101">
         <v>0.2</v>
       </c>
       <c r="I101">
-        <v>300.24</v>
+        <v>275.04000000000002</v>
       </c>
       <c r="J101">
-        <v>21.4947063250466</v>
+        <v>16.4547379195172</v>
       </c>
       <c r="K101">
-        <v>2007.3</v>
+        <v>5511.16</v>
       </c>
       <c r="L101">
-        <v>3264.62</v>
+        <v>7733.08</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4513,66 +4513,66 @@
         <v>3500</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G102">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I102">
-        <v>303.32</v>
+        <v>276.52</v>
       </c>
       <c r="J102">
-        <v>19.3519404711775</v>
+        <v>17.236287303244801</v>
       </c>
       <c r="K102">
-        <v>3238.4</v>
+        <v>3703.82</v>
       </c>
       <c r="L102">
-        <v>8040.42</v>
+        <v>6747.24</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>3500</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
-        <v>304.92</v>
+        <v>278.08</v>
       </c>
       <c r="J103">
-        <v>33.906247211981402</v>
+        <v>11.845404172082899</v>
       </c>
       <c r="K103">
-        <v>3372.62</v>
+        <v>6095.84</v>
       </c>
       <c r="L103">
-        <v>5069.24</v>
+        <v>8073.16</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4583,48 +4583,48 @@
         <v>3500</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G104">
         <v>0.2</v>
       </c>
       <c r="I104">
-        <v>305.04000000000002</v>
+        <v>278.36</v>
       </c>
       <c r="J104">
-        <v>15.4983353944867</v>
+        <v>17.170626080606301</v>
       </c>
       <c r="K104">
-        <v>8567.7199999999993</v>
+        <v>4415.46</v>
       </c>
       <c r="L104">
-        <v>9869.84</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B105">
         <v>3500</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -4633,51 +4633,51 @@
         <v>0.4</v>
       </c>
       <c r="I105">
-        <v>306.24</v>
+        <v>279.52</v>
       </c>
       <c r="J105">
-        <v>18.489521356703602</v>
+        <v>20.421792281775801</v>
       </c>
       <c r="K105">
-        <v>2238.94</v>
+        <v>2677.96</v>
       </c>
       <c r="L105">
-        <v>7721.32</v>
+        <v>3770.84</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>3500</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
-        <v>306.72000000000003</v>
+        <v>279.72000000000003</v>
       </c>
       <c r="J106">
-        <v>20.756724211686201</v>
+        <v>18.146118042159799</v>
       </c>
       <c r="K106">
-        <v>2771.02</v>
+        <v>2876.64</v>
       </c>
       <c r="L106">
-        <v>7953.68</v>
+        <v>3736.22</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,45 +4688,45 @@
         <v>3500</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I107">
-        <v>307.95999999999998</v>
+        <v>280.04000000000002</v>
       </c>
       <c r="J107">
-        <v>19.499702561834098</v>
+        <v>16.1467767681354</v>
       </c>
       <c r="K107">
-        <v>1796.08</v>
+        <v>2364.6</v>
       </c>
       <c r="L107">
-        <v>3627.48</v>
+        <v>4104.68</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>3500</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>0.8</v>
@@ -4738,86 +4738,86 @@
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>311.39999999999998</v>
+        <v>280.83999999999997</v>
       </c>
       <c r="J108">
-        <v>16.862977198585</v>
+        <v>23.0966317890726</v>
       </c>
       <c r="K108">
-        <v>1936.32</v>
+        <v>4655.5200000000004</v>
       </c>
       <c r="L108">
-        <v>4344.5200000000004</v>
+        <v>6636.28</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>3500</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>0.7</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G109">
         <v>0.2</v>
       </c>
       <c r="I109">
-        <v>311.92</v>
+        <v>281.8</v>
       </c>
       <c r="J109">
-        <v>19.133049939829199</v>
+        <v>16.739175606940702</v>
       </c>
       <c r="K109">
-        <v>1799.08</v>
+        <v>4304.3999999999996</v>
       </c>
       <c r="L109">
-        <v>4653.88</v>
+        <v>6608.2</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>3500</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G110">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I110">
-        <v>311.92</v>
+        <v>282.56</v>
       </c>
       <c r="J110">
-        <v>19.145589570446699</v>
+        <v>16.8951590699821</v>
       </c>
       <c r="K110">
-        <v>6843.12</v>
+        <v>2366.48</v>
       </c>
       <c r="L110">
-        <v>8968.66</v>
+        <v>4033.8</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>3500</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -4840,33 +4840,33 @@
         <v>11</v>
       </c>
       <c r="G111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I111">
-        <v>312.08</v>
+        <v>283.04000000000002</v>
       </c>
       <c r="J111">
-        <v>19.133049939829199</v>
+        <v>19.271699458013501</v>
       </c>
       <c r="K111">
-        <v>3955.96</v>
+        <v>3965.72</v>
       </c>
       <c r="L111">
-        <v>8430.34</v>
+        <v>6870.14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B112">
         <v>3500</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>0.7</v>
@@ -4875,19 +4875,19 @@
         <v>11</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
-        <v>312.64</v>
+        <v>283.04000000000002</v>
       </c>
       <c r="J112">
-        <v>21.337066340057099</v>
+        <v>39.890329655193298</v>
       </c>
       <c r="K112">
-        <v>1645.94</v>
+        <v>5409.16</v>
       </c>
       <c r="L112">
-        <v>3553.58</v>
+        <v>7507.16</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4898,66 +4898,66 @@
         <v>3500</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
-        <v>312.68</v>
+        <v>284.12</v>
       </c>
       <c r="J113">
-        <v>20.304127659173101</v>
+        <v>85.961302921721696</v>
       </c>
       <c r="K113">
-        <v>3374.62</v>
+        <v>5998.92</v>
       </c>
       <c r="L113">
-        <v>7476.38</v>
+        <v>7831.82</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>3500</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>0.8</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G114">
         <v>0.2</v>
       </c>
       <c r="I114">
-        <v>312.88</v>
+        <v>284.76</v>
       </c>
       <c r="J114">
-        <v>14.6869193502245</v>
+        <v>16.727892873879799</v>
       </c>
       <c r="K114">
-        <v>8061.42</v>
+        <v>1930.68</v>
       </c>
       <c r="L114">
-        <v>9022.1200000000008</v>
+        <v>3033.66</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4968,66 +4968,66 @@
         <v>3500</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E115">
         <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G115">
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>315.88</v>
+        <v>284.76</v>
       </c>
       <c r="J115">
-        <v>17.6789592453854</v>
+        <v>18.842038106319599</v>
       </c>
       <c r="K115">
-        <v>3145.8</v>
+        <v>4390.12</v>
       </c>
       <c r="L115">
-        <v>7971.24</v>
+        <v>6665.2</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B116">
         <v>3500</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E116">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G116">
         <v>0.2</v>
       </c>
       <c r="I116">
-        <v>316.44</v>
+        <v>284.8</v>
       </c>
       <c r="J116">
-        <v>17.764188695237301</v>
+        <v>15.424655587727001</v>
       </c>
       <c r="K116">
-        <v>5556.42</v>
+        <v>1892.44</v>
       </c>
       <c r="L116">
-        <v>6918.34</v>
+        <v>3057.02</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5038,45 +5038,45 @@
         <v>3500</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>317.36</v>
+        <v>285.48</v>
       </c>
       <c r="J117">
-        <v>17.533693278941499</v>
+        <v>17.901106111075901</v>
       </c>
       <c r="K117">
-        <v>1490.24</v>
+        <v>1848.78</v>
       </c>
       <c r="L117">
-        <v>4232.3</v>
+        <v>3081.68</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>3500</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E118">
         <v>0.8</v>
@@ -5088,30 +5088,30 @@
         <v>0.2</v>
       </c>
       <c r="I118">
-        <v>317.92</v>
+        <v>286.08</v>
       </c>
       <c r="J118">
-        <v>22.771771999561199</v>
+        <v>14.9396653242299</v>
       </c>
       <c r="K118">
-        <v>1538.28</v>
+        <v>3089.54</v>
       </c>
       <c r="L118">
-        <v>4223.5</v>
+        <v>8222.94</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B119">
         <v>3500</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>0.8</v>
@@ -5120,19 +5120,19 @@
         <v>11</v>
       </c>
       <c r="G119">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I119">
-        <v>319.8</v>
+        <v>286.83999999999997</v>
       </c>
       <c r="J119">
-        <v>19.188538245525599</v>
+        <v>22.210231876322201</v>
       </c>
       <c r="K119">
-        <v>1712.84</v>
+        <v>3342.56</v>
       </c>
       <c r="L119">
-        <v>3740.96</v>
+        <v>9144.1</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5143,31 +5143,31 @@
         <v>3500</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G120">
         <v>0.2</v>
       </c>
       <c r="I120">
-        <v>320.44</v>
+        <v>287.56</v>
       </c>
       <c r="J120">
-        <v>17.669363316203501</v>
+        <v>18.479350637941799</v>
       </c>
       <c r="K120">
-        <v>2711.2</v>
+        <v>5889.6</v>
       </c>
       <c r="L120">
-        <v>7276.28</v>
+        <v>7930.86</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5178,13 +5178,13 @@
         <v>3500</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
@@ -5193,16 +5193,16 @@
         <v>0.4</v>
       </c>
       <c r="I121">
-        <v>320.52</v>
+        <v>287.83999999999997</v>
       </c>
       <c r="J121">
-        <v>20.293092420821399</v>
+        <v>18.193801142147201</v>
       </c>
       <c r="K121">
-        <v>1723.5</v>
+        <v>2718.48</v>
       </c>
       <c r="L121">
-        <v>4167.96</v>
+        <v>4352.66</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
         <v>3500</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -5222,22 +5222,22 @@
         <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G122">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I122">
-        <v>323.39999999999998</v>
+        <v>289.16000000000003</v>
       </c>
       <c r="J122">
-        <v>22.084383622822699</v>
+        <v>18.5734864793877</v>
       </c>
       <c r="K122">
-        <v>1759.48</v>
+        <v>1924.16</v>
       </c>
       <c r="L122">
-        <v>3738.7</v>
+        <v>3090.92</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5248,31 +5248,31 @@
         <v>3500</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E123">
         <v>0.7</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G123">
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>324.04000000000002</v>
+        <v>289.36</v>
       </c>
       <c r="J123">
-        <v>15.9373272539657</v>
+        <v>17.633785753490301</v>
       </c>
       <c r="K123">
-        <v>7056.24</v>
+        <v>2737.2</v>
       </c>
       <c r="L123">
-        <v>7994.3</v>
+        <v>8270.2000000000007</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5283,10 +5283,10 @@
         <v>3500</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>0.7</v>
@@ -5295,19 +5295,19 @@
         <v>11</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I124">
-        <v>325.12</v>
+        <v>290.52</v>
       </c>
       <c r="J124">
-        <v>19.502451127999201</v>
+        <v>18.206855851574101</v>
       </c>
       <c r="K124">
-        <v>1452.52</v>
+        <v>2515.44</v>
       </c>
       <c r="L124">
-        <v>4126.16</v>
+        <v>3612.42</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5318,66 +5318,66 @@
         <v>3500</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G125">
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>325.48</v>
+        <v>291.52</v>
       </c>
       <c r="J125">
-        <v>14.343277170856</v>
+        <v>21.520446092030699</v>
       </c>
       <c r="K125">
-        <v>6629.26</v>
+        <v>4198.18</v>
       </c>
       <c r="L125">
-        <v>8518.76</v>
+        <v>7782.26</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>3500</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G126">
         <v>0.2</v>
       </c>
       <c r="I126">
-        <v>328.52</v>
+        <v>291.64</v>
       </c>
       <c r="J126">
-        <v>19.459948612470601</v>
+        <v>18.721922978155799</v>
       </c>
       <c r="K126">
-        <v>2392.2800000000002</v>
+        <v>2104.12</v>
       </c>
       <c r="L126">
-        <v>8569.16</v>
+        <v>3586.78</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5388,31 +5388,31 @@
         <v>3500</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E127">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G127">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I127">
-        <v>330.8</v>
+        <v>292.64</v>
       </c>
       <c r="J127">
-        <v>16.5311826558174</v>
+        <v>14.4412741820103</v>
       </c>
       <c r="K127">
-        <v>6340.82</v>
+        <v>4742.88</v>
       </c>
       <c r="L127">
-        <v>7526.94</v>
+        <v>9069.2199999999993</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5423,31 +5423,31 @@
         <v>3500</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>331.32</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="J128">
-        <v>19.223360788374102</v>
+        <v>19.8907415648587</v>
       </c>
       <c r="K128">
-        <v>1104.52</v>
+        <v>1970.16</v>
       </c>
       <c r="L128">
-        <v>3707.44</v>
+        <v>3543.64</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5458,80 +5458,80 @@
         <v>3500</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E129">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129">
-        <v>331.92</v>
+        <v>294.8</v>
       </c>
       <c r="J129">
-        <v>15.2523309693961</v>
+        <v>16.262841080204801</v>
       </c>
       <c r="K129">
-        <v>3131.68</v>
+        <v>2684.54</v>
       </c>
       <c r="L129">
-        <v>3849.36</v>
+        <v>4666.26</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>3500</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G130">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I130">
-        <v>332.2</v>
+        <v>295.56</v>
       </c>
       <c r="J130">
-        <v>14.681961721786299</v>
+        <v>15.657790393283401</v>
       </c>
       <c r="K130">
-        <v>7885.92</v>
+        <v>1957.84</v>
       </c>
       <c r="L130">
-        <v>9710.76</v>
+        <v>3491.68</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>3500</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>0.7</v>
@@ -5543,16 +5543,16 @@
         <v>0.2</v>
       </c>
       <c r="I131">
-        <v>333</v>
+        <v>296.72000000000003</v>
       </c>
       <c r="J131">
-        <v>21.582400237230299</v>
+        <v>16.879620848822402</v>
       </c>
       <c r="K131">
-        <v>1670.3</v>
+        <v>3257.48</v>
       </c>
       <c r="L131">
-        <v>3667.66</v>
+        <v>6952.38</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -5563,31 +5563,31 @@
         <v>3500</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E132">
         <v>0.8</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G132">
         <v>0.2</v>
       </c>
       <c r="I132">
-        <v>337.28</v>
+        <v>296.8</v>
       </c>
       <c r="J132">
-        <v>13.929881550106501</v>
+        <v>19.559141085436199</v>
       </c>
       <c r="K132">
-        <v>3741.88</v>
+        <v>3076.8</v>
       </c>
       <c r="L132">
-        <v>4423.92</v>
+        <v>4086.64</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>3500</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -5607,22 +5607,22 @@
         <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G133">
         <v>0.2</v>
       </c>
       <c r="I133">
-        <v>340.16</v>
+        <v>296.88</v>
       </c>
       <c r="J133">
-        <v>19.261734086005799</v>
+        <v>17.768106258124401</v>
       </c>
       <c r="K133">
-        <v>2957.68</v>
+        <v>2293.64</v>
       </c>
       <c r="L133">
-        <v>3698.32</v>
+        <v>3987.54</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -5633,66 +5633,66 @@
         <v>3500</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G134">
         <v>0.2</v>
       </c>
       <c r="I134">
-        <v>342.52</v>
+        <v>296.95999999999998</v>
       </c>
       <c r="J134">
-        <v>19.236673309072899</v>
+        <v>19.988956951276801</v>
       </c>
       <c r="K134">
-        <v>3194.32</v>
+        <v>1888.52</v>
       </c>
       <c r="L134">
-        <v>4237.34</v>
+        <v>3248.2</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B135">
         <v>3500</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E135">
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I135">
-        <v>345.04</v>
+        <v>298</v>
       </c>
       <c r="J135">
-        <v>18.335713784851599</v>
+        <v>16.80476123008</v>
       </c>
       <c r="K135">
-        <v>3653.78</v>
+        <v>3837.62</v>
       </c>
       <c r="L135">
-        <v>4289.8999999999996</v>
+        <v>6741.24</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5703,136 +5703,136 @@
         <v>3500</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
-        <v>345.84</v>
+        <v>300.24</v>
       </c>
       <c r="J136">
-        <v>18.2245548642484</v>
+        <v>21.4947063250466</v>
       </c>
       <c r="K136">
-        <v>3512.84</v>
+        <v>2007.3</v>
       </c>
       <c r="L136">
-        <v>4074.6</v>
+        <v>3264.62</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B137">
         <v>3500</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E137">
         <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G137">
         <v>0.4</v>
       </c>
       <c r="I137">
-        <v>346.68</v>
+        <v>301.76</v>
       </c>
       <c r="J137">
-        <v>18.695924689621499</v>
+        <v>14.634971814117</v>
       </c>
       <c r="K137">
-        <v>3230.02</v>
+        <v>4357.6000000000004</v>
       </c>
       <c r="L137">
-        <v>3803.52</v>
+        <v>6854.24</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B138">
         <v>3500</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G138">
         <v>0.4</v>
       </c>
       <c r="I138">
-        <v>348.28</v>
+        <v>301.83999999999997</v>
       </c>
       <c r="J138">
-        <v>18.931497563584301</v>
+        <v>18.529284929537798</v>
       </c>
       <c r="K138">
-        <v>3411.74</v>
+        <v>4449.88</v>
       </c>
       <c r="L138">
-        <v>4002.06</v>
+        <v>6863.24</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B139">
         <v>3500</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E139">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G139">
         <v>0.4</v>
       </c>
       <c r="I139">
-        <v>351.88</v>
+        <v>301.88</v>
       </c>
       <c r="J139">
-        <v>18.592084337158099</v>
+        <v>16.706453842751898</v>
       </c>
       <c r="K139">
-        <v>3270.98</v>
+        <v>3731.6</v>
       </c>
       <c r="L139">
-        <v>3825.48</v>
+        <v>6732.62</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -5843,171 +5843,171 @@
         <v>3500</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>0.8</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G140">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I140">
-        <v>351.96</v>
+        <v>303.32</v>
       </c>
       <c r="J140">
-        <v>16.605974828356199</v>
+        <v>19.3519404711775</v>
       </c>
       <c r="K140">
-        <v>6631.48</v>
+        <v>3238.4</v>
       </c>
       <c r="L140">
-        <v>8668.34</v>
+        <v>8040.42</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>3500</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G141">
         <v>0.2</v>
       </c>
       <c r="I141">
-        <v>352.8</v>
+        <v>303.36</v>
       </c>
       <c r="J141">
-        <v>17.329743217947499</v>
+        <v>15.281047084542299</v>
       </c>
       <c r="K141">
-        <v>2822.96</v>
+        <v>3521.56</v>
       </c>
       <c r="L141">
-        <v>3723.16</v>
+        <v>6589.24</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B142">
         <v>3500</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G142">
         <v>0.2</v>
       </c>
       <c r="I142">
-        <v>353.88</v>
+        <v>303.44</v>
       </c>
       <c r="J142">
-        <v>15.5353017350806</v>
+        <v>18.7063197877081</v>
       </c>
       <c r="K142">
-        <v>6341.78</v>
+        <v>2463.08</v>
       </c>
       <c r="L142">
-        <v>7966.04</v>
+        <v>4004.7</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B143">
         <v>3500</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143">
         <v>0.4</v>
       </c>
       <c r="I143">
-        <v>356.64</v>
+        <v>304.92</v>
       </c>
       <c r="J143">
-        <v>11.554670051541899</v>
+        <v>33.906247211981402</v>
       </c>
       <c r="K143">
-        <v>3851.86</v>
+        <v>3372.62</v>
       </c>
       <c r="L143">
-        <v>8065.98</v>
+        <v>5069.24</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B144">
         <v>3500</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G144">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I144">
-        <v>360</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="J144">
-        <v>13.2725280184296</v>
+        <v>14.9505852728246</v>
       </c>
       <c r="K144">
-        <v>4834.92</v>
+        <v>2744.14</v>
       </c>
       <c r="L144">
-        <v>10318.5</v>
+        <v>3910.96</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -6018,31 +6018,31 @@
         <v>3500</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G145">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I145">
-        <v>366.6</v>
+        <v>306.24</v>
       </c>
       <c r="J145">
-        <v>21.623135757794198</v>
+        <v>18.489521356703602</v>
       </c>
       <c r="K145">
-        <v>5495.08</v>
+        <v>2238.94</v>
       </c>
       <c r="L145">
-        <v>7571.62</v>
+        <v>7721.32</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -6053,206 +6053,206 @@
         <v>3500</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G146">
         <v>0.2</v>
       </c>
       <c r="I146">
-        <v>367.2</v>
+        <v>306.36</v>
       </c>
       <c r="J146">
-        <v>14.604109010822899</v>
+        <v>16.5103119292156</v>
       </c>
       <c r="K146">
-        <v>3391.58</v>
+        <v>1439.6</v>
       </c>
       <c r="L146">
-        <v>4392.68</v>
+        <v>3838.4</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>3500</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E147">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G147">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>368.4</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="J147">
-        <v>8.5041166501877097</v>
+        <v>20.756724211686201</v>
       </c>
       <c r="K147">
-        <v>2308.8000000000002</v>
+        <v>2771.02</v>
       </c>
       <c r="L147">
-        <v>4579.18</v>
+        <v>7953.68</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B148">
         <v>3500</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G148">
         <v>0.4</v>
       </c>
       <c r="I148">
-        <v>368.4</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="J148">
-        <v>32.569924777315599</v>
+        <v>18.224203686306801</v>
       </c>
       <c r="K148">
-        <v>6726.32</v>
+        <v>1814.4</v>
       </c>
       <c r="L148">
-        <v>8578.7199999999993</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B149">
         <v>3500</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E149">
         <v>0.8</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G149">
         <v>0.4</v>
       </c>
       <c r="I149">
-        <v>368.8</v>
+        <v>307.2</v>
       </c>
       <c r="J149">
-        <v>8.2267855204812506</v>
+        <v>16.714065932620901</v>
       </c>
       <c r="K149">
-        <v>6715.26</v>
+        <v>2037.88</v>
       </c>
       <c r="L149">
-        <v>12339.34</v>
+        <v>3452.54</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B150">
         <v>3500</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G150">
         <v>0.2</v>
       </c>
       <c r="I150">
-        <v>369.56</v>
+        <v>307.95999999999998</v>
       </c>
       <c r="J150">
-        <v>16.116029287637801</v>
+        <v>19.499702561834098</v>
       </c>
       <c r="K150">
-        <v>5308.4</v>
+        <v>1796.08</v>
       </c>
       <c r="L150">
-        <v>7554.2</v>
+        <v>3627.48</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B151">
         <v>3500</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E151">
         <v>0.7</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G151">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I151">
-        <v>369.92</v>
+        <v>308.27999999999997</v>
       </c>
       <c r="J151">
-        <v>17.181199026843199</v>
+        <v>16.531231049138398</v>
       </c>
       <c r="K151">
-        <v>4920.88</v>
+        <v>1846.42</v>
       </c>
       <c r="L151">
-        <v>7507.34</v>
+        <v>3412.84</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -6263,31 +6263,31 @@
         <v>3500</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G152">
         <v>0.4</v>
       </c>
       <c r="I152">
-        <v>370.48</v>
+        <v>309.04000000000002</v>
       </c>
       <c r="J152">
-        <v>8.5842646743911502</v>
+        <v>17.228998810145601</v>
       </c>
       <c r="K152">
-        <v>2589.2600000000002</v>
+        <v>1962.24</v>
       </c>
       <c r="L152">
-        <v>4674.0200000000004</v>
+        <v>3400.56</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -6298,31 +6298,31 @@
         <v>3500</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G153">
         <v>0.2</v>
       </c>
       <c r="I153">
-        <v>370.76</v>
+        <v>310.95999999999998</v>
       </c>
       <c r="J153">
-        <v>18.0571980107656</v>
+        <v>17.8493249172062</v>
       </c>
       <c r="K153">
-        <v>5997.98</v>
+        <v>3491.04</v>
       </c>
       <c r="L153">
-        <v>8753.26</v>
+        <v>6474.68</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -6333,31 +6333,31 @@
         <v>3500</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G154">
         <v>0.2</v>
       </c>
       <c r="I154">
-        <v>372.64</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="J154">
-        <v>15.750250791654</v>
+        <v>16.862977198585</v>
       </c>
       <c r="K154">
-        <v>3356.04</v>
+        <v>1936.32</v>
       </c>
       <c r="L154">
-        <v>4270.08</v>
+        <v>4344.5200000000004</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -6368,171 +6368,171 @@
         <v>3500</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G155">
         <v>0.2</v>
       </c>
       <c r="I155">
-        <v>374.08</v>
+        <v>311.44</v>
       </c>
       <c r="J155">
-        <v>21.0103212731266</v>
+        <v>14.0515621907316</v>
       </c>
       <c r="K155">
-        <v>2873.22</v>
+        <v>2436.2399999999998</v>
       </c>
       <c r="L155">
-        <v>7044.62</v>
+        <v>6599.02</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B156">
         <v>3500</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G156">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I156">
-        <v>375.4</v>
+        <v>311.92</v>
       </c>
       <c r="J156">
-        <v>30.088536022877499</v>
+        <v>19.133049939829199</v>
       </c>
       <c r="K156">
-        <v>6406.54</v>
+        <v>1799.08</v>
       </c>
       <c r="L156">
-        <v>8704.4</v>
+        <v>4653.88</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B157">
         <v>3500</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E157">
         <v>0.7</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G157">
         <v>0.4</v>
       </c>
       <c r="I157">
-        <v>377.24</v>
+        <v>312.08</v>
       </c>
       <c r="J157">
-        <v>21.886580363318501</v>
+        <v>19.133049939829199</v>
       </c>
       <c r="K157">
-        <v>1953.42</v>
+        <v>3955.96</v>
       </c>
       <c r="L157">
-        <v>3611.76</v>
+        <v>8430.34</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B158">
         <v>3500</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G158">
         <v>0.2</v>
       </c>
       <c r="I158">
-        <v>378.08</v>
+        <v>312.64</v>
       </c>
       <c r="J158">
-        <v>26.7011909846733</v>
+        <v>21.337066340057099</v>
       </c>
       <c r="K158">
-        <v>3203.7</v>
+        <v>1645.94</v>
       </c>
       <c r="L158">
-        <v>7276.04</v>
+        <v>3553.58</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>3500</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E159">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G159">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I159">
-        <v>379.36</v>
+        <v>312.68</v>
       </c>
       <c r="J159">
-        <v>16.596095926452101</v>
+        <v>20.304127659173101</v>
       </c>
       <c r="K159">
-        <v>2401</v>
+        <v>3374.62</v>
       </c>
       <c r="L159">
-        <v>3815.96</v>
+        <v>7476.38</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -6543,31 +6543,31 @@
         <v>3500</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G160">
         <v>0.2</v>
       </c>
       <c r="I160">
-        <v>379.72</v>
+        <v>313.2</v>
       </c>
       <c r="J160">
-        <v>22.5601773042678</v>
+        <v>16.847551750922101</v>
       </c>
       <c r="K160">
-        <v>1399.6</v>
+        <v>1428.34</v>
       </c>
       <c r="L160">
-        <v>3413.86</v>
+        <v>3308.54</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -6578,31 +6578,31 @@
         <v>3500</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E161">
         <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G161">
         <v>0.2</v>
       </c>
       <c r="I161">
-        <v>380.92</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="J161">
-        <v>22.898768525839898</v>
+        <v>16.766633532107701</v>
       </c>
       <c r="K161">
-        <v>3160.38</v>
+        <v>2614.48</v>
       </c>
       <c r="L161">
-        <v>7101.04</v>
+        <v>6483.14</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -6613,31 +6613,31 @@
         <v>3500</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
-        <v>381.04</v>
+        <v>313.95999999999998</v>
       </c>
       <c r="J162">
-        <v>19.1342206530603</v>
+        <v>45.409232541411598</v>
       </c>
       <c r="K162">
-        <v>3384.74</v>
+        <v>5443.06</v>
       </c>
       <c r="L162">
-        <v>7182.32</v>
+        <v>8361.2199999999993</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -6648,66 +6648,66 @@
         <v>3500</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E163">
         <v>0.7</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G163">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I163">
-        <v>381.28</v>
+        <v>314.32</v>
       </c>
       <c r="J163">
-        <v>17.314779813789102</v>
+        <v>21.0574832304337</v>
       </c>
       <c r="K163">
-        <v>1932.46</v>
+        <v>1677.14</v>
       </c>
       <c r="L163">
-        <v>3610.58</v>
+        <v>3302.26</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B164">
         <v>3500</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
-        <v>381.68</v>
+        <v>315.88</v>
       </c>
       <c r="J164">
-        <v>11.6162644597994</v>
+        <v>17.6789592453854</v>
       </c>
       <c r="K164">
-        <v>2470.6799999999998</v>
+        <v>3145.8</v>
       </c>
       <c r="L164">
-        <v>4968.82</v>
+        <v>7971.24</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -6718,31 +6718,31 @@
         <v>3500</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>0.8</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I165">
-        <v>383.12</v>
+        <v>317.36</v>
       </c>
       <c r="J165">
-        <v>15.580295247523299</v>
+        <v>17.533693278941499</v>
       </c>
       <c r="K165">
-        <v>2596.3000000000002</v>
+        <v>1490.24</v>
       </c>
       <c r="L165">
-        <v>3743.04</v>
+        <v>4232.3</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -6753,31 +6753,31 @@
         <v>3500</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E166">
         <v>0.8</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G166">
         <v>0.2</v>
       </c>
       <c r="I166">
-        <v>383.24</v>
+        <v>317.83999999999997</v>
       </c>
       <c r="J166">
-        <v>23.278797219787698</v>
+        <v>20.364046749111498</v>
       </c>
       <c r="K166">
-        <v>1343.3</v>
+        <v>1973.58</v>
       </c>
       <c r="L166">
-        <v>3486.94</v>
+        <v>3339.92</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -6788,66 +6788,66 @@
         <v>3500</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>384.44</v>
+        <v>317.92</v>
       </c>
       <c r="J167">
-        <v>14.329214912199401</v>
+        <v>22.771771999561199</v>
       </c>
       <c r="K167">
-        <v>2411.86</v>
+        <v>1538.28</v>
       </c>
       <c r="L167">
-        <v>3798.68</v>
+        <v>4223.5</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>3500</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E168">
         <v>0.7</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I168">
-        <v>386.64</v>
+        <v>319.36</v>
       </c>
       <c r="J168">
-        <v>21.594221449267401</v>
+        <v>19.577292969151699</v>
       </c>
       <c r="K168">
-        <v>4471.16</v>
+        <v>1194.74</v>
       </c>
       <c r="L168">
-        <v>7295.8</v>
+        <v>3292.56</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -6858,31 +6858,31 @@
         <v>3500</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E169">
         <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G169">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I169">
-        <v>386.8</v>
+        <v>319.8</v>
       </c>
       <c r="J169">
-        <v>17.915356541246901</v>
+        <v>19.188538245525599</v>
       </c>
       <c r="K169">
-        <v>2427.54</v>
+        <v>1712.84</v>
       </c>
       <c r="L169">
-        <v>3565.32</v>
+        <v>3740.96</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -6893,45 +6893,45 @@
         <v>3500</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G170">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I170">
-        <v>387.72</v>
+        <v>320.44</v>
       </c>
       <c r="J170">
-        <v>24.732197637896999</v>
+        <v>17.669363316203501</v>
       </c>
       <c r="K170">
-        <v>5265.18</v>
+        <v>2711.2</v>
       </c>
       <c r="L170">
-        <v>8183.5</v>
+        <v>7276.28</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B171">
         <v>3500</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E171">
         <v>0.7</v>
@@ -6943,16 +6943,16 @@
         <v>0.4</v>
       </c>
       <c r="I171">
-        <v>388.36</v>
+        <v>320.52</v>
       </c>
       <c r="J171">
-        <v>9.0747121166458999</v>
+        <v>20.293092420821399</v>
       </c>
       <c r="K171">
-        <v>4629.82</v>
+        <v>1723.5</v>
       </c>
       <c r="L171">
-        <v>8777.4</v>
+        <v>4167.96</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -6963,31 +6963,31 @@
         <v>3500</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G172">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I172">
-        <v>391.12</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="J172">
-        <v>22.7197183081128</v>
+        <v>22.084383622822699</v>
       </c>
       <c r="K172">
-        <v>1592.92</v>
+        <v>1759.48</v>
       </c>
       <c r="L172">
-        <v>3452.94</v>
+        <v>3738.7</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -6998,80 +6998,80 @@
         <v>3500</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E173">
         <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G173">
         <v>0.2</v>
       </c>
       <c r="I173">
-        <v>391.16</v>
+        <v>325.12</v>
       </c>
       <c r="J173">
-        <v>20.234979614518998</v>
+        <v>19.502451127999201</v>
       </c>
       <c r="K173">
-        <v>1620.34</v>
+        <v>1452.52</v>
       </c>
       <c r="L173">
-        <v>3365.4</v>
+        <v>4126.16</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B174">
         <v>3500</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
       </c>
       <c r="G174">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I174">
-        <v>401.88</v>
+        <v>328.52</v>
       </c>
       <c r="J174">
-        <v>13.519822484041701</v>
+        <v>19.459948612470601</v>
       </c>
       <c r="K174">
-        <v>1963.94</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="L174">
-        <v>3983.94</v>
+        <v>8569.16</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>3500</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>0.8</v>
@@ -7080,94 +7080,94 @@
         <v>11</v>
       </c>
       <c r="G175">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I175">
-        <v>402.32</v>
+        <v>331.32</v>
       </c>
       <c r="J175">
-        <v>6.4169774816497496</v>
+        <v>19.223360788374102</v>
       </c>
       <c r="K175">
-        <v>4201.5200000000004</v>
+        <v>1104.52</v>
       </c>
       <c r="L175">
-        <v>9005.6</v>
+        <v>3707.44</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B176">
         <v>3500</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E176">
         <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G176">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I176">
-        <v>408.68</v>
+        <v>333</v>
       </c>
       <c r="J176">
-        <v>6.1006229190140902</v>
+        <v>21.582400237230299</v>
       </c>
       <c r="K176">
-        <v>3926.58</v>
+        <v>1670.3</v>
       </c>
       <c r="L176">
-        <v>9063.08</v>
+        <v>3667.66</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B177">
         <v>3500</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G177">
         <v>0.4</v>
       </c>
       <c r="I177">
-        <v>409.44</v>
+        <v>356.64</v>
       </c>
       <c r="J177">
-        <v>9.2782757018747795</v>
+        <v>11.554670051541899</v>
       </c>
       <c r="K177">
-        <v>1811.04</v>
+        <v>3851.86</v>
       </c>
       <c r="L177">
-        <v>4390.62</v>
+        <v>8065.98</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B178">
         <v>3500</v>
@@ -7176,33 +7176,33 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E178">
         <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>409.6</v>
+        <v>381.68</v>
       </c>
       <c r="J178">
-        <v>6.2225396744416201</v>
+        <v>11.6162644597994</v>
       </c>
       <c r="K178">
-        <v>5515.08</v>
+        <v>2470.6799999999998</v>
       </c>
       <c r="L178">
-        <v>12106.94</v>
+        <v>4968.82</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B179">
         <v>3500</v>
@@ -7211,33 +7211,33 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G179">
         <v>0.4</v>
       </c>
       <c r="I179">
-        <v>409.68</v>
+        <v>388.36</v>
       </c>
       <c r="J179">
-        <v>9.7435927665312398</v>
+        <v>9.0747121166458999</v>
       </c>
       <c r="K179">
-        <v>2077.54</v>
+        <v>4629.82</v>
       </c>
       <c r="L179">
-        <v>4418.82</v>
+        <v>8777.4</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B180">
         <v>3500</v>
@@ -7249,30 +7249,30 @@
         <v>10</v>
       </c>
       <c r="E180">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G180">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I180">
-        <v>410.28</v>
+        <v>392.16</v>
       </c>
       <c r="J180">
-        <v>6.82360608476192</v>
+        <v>13.3136922001374</v>
       </c>
       <c r="K180">
-        <v>3862.62</v>
+        <v>2804.9</v>
       </c>
       <c r="L180">
-        <v>8552.08</v>
+        <v>5655.26</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>3500</v>
@@ -7284,25 +7284,25 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
-        <v>410.6</v>
+        <v>397.36</v>
       </c>
       <c r="J181">
-        <v>6.2769419305900804</v>
+        <v>25.6138712419657</v>
       </c>
       <c r="K181">
-        <v>4148.88</v>
+        <v>2853.32</v>
       </c>
       <c r="L181">
-        <v>8804.2999999999993</v>
+        <v>5701.86</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -7313,31 +7313,31 @@
         <v>3500</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G182">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I182">
-        <v>411.16</v>
+        <v>400.92</v>
       </c>
       <c r="J182">
-        <v>7.5162756734968097</v>
+        <v>13.949680999936801</v>
       </c>
       <c r="K182">
-        <v>2172.34</v>
+        <v>1685.64</v>
       </c>
       <c r="L182">
-        <v>4545.82</v>
+        <v>3639.66</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -7348,31 +7348,31 @@
         <v>3500</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F183" t="s">
         <v>11</v>
       </c>
       <c r="G183">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I183">
-        <v>411.24</v>
+        <v>401.88</v>
       </c>
       <c r="J183">
-        <v>7.8576332314507997</v>
+        <v>13.519822484041701</v>
       </c>
       <c r="K183">
-        <v>2212.2600000000002</v>
+        <v>1963.94</v>
       </c>
       <c r="L183">
-        <v>4553.12</v>
+        <v>3983.94</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -7386,63 +7386,63 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
         <v>11</v>
       </c>
       <c r="G184">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I184">
-        <v>411.76</v>
+        <v>402.32</v>
       </c>
       <c r="J184">
-        <v>7.5751171608101204</v>
+        <v>6.4169774816497496</v>
       </c>
       <c r="K184">
-        <v>3920.16</v>
+        <v>4201.5200000000004</v>
       </c>
       <c r="L184">
-        <v>8162.02</v>
+        <v>9005.6</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>3500</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>411.96</v>
+        <v>402.36</v>
       </c>
       <c r="J185">
-        <v>5.8718310602400701</v>
+        <v>15.2666433769836</v>
       </c>
       <c r="K185">
-        <v>4020.66</v>
+        <v>1773</v>
       </c>
       <c r="L185">
-        <v>8916.36</v>
+        <v>3629.28</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -7456,28 +7456,28 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E186">
         <v>0.7</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>412.44</v>
+        <v>406.08</v>
       </c>
       <c r="J186">
-        <v>6.29018282723165</v>
+        <v>7.0536231824502797</v>
       </c>
       <c r="K186">
-        <v>5266.3</v>
+        <v>3992.78</v>
       </c>
       <c r="L186">
-        <v>9838.1</v>
+        <v>8245.58</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -7491,28 +7491,28 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I187">
-        <v>413.92</v>
+        <v>408.44</v>
       </c>
       <c r="J187">
-        <v>7.4076716989888203</v>
+        <v>7.5608465134533702</v>
       </c>
       <c r="K187">
-        <v>4278.8</v>
+        <v>3998.64</v>
       </c>
       <c r="L187">
-        <v>9976.42</v>
+        <v>8217.3799999999992</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -7526,28 +7526,28 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G188">
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>414.28</v>
+        <v>410.04</v>
       </c>
       <c r="J188">
-        <v>8.4570444009712897</v>
+        <v>8.6486068242231902</v>
       </c>
       <c r="K188">
-        <v>2193.06</v>
+        <v>2817.92</v>
       </c>
       <c r="L188">
-        <v>4584.22</v>
+        <v>5851.08</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -7561,33 +7561,33 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G189">
         <v>0.4</v>
       </c>
       <c r="I189">
-        <v>414.28</v>
+        <v>410.36</v>
       </c>
       <c r="J189">
-        <v>8.1388942737941896</v>
+        <v>6.7845707307094898</v>
       </c>
       <c r="K189">
-        <v>4609.88</v>
+        <v>4220.72</v>
       </c>
       <c r="L189">
-        <v>9981.84</v>
+        <v>8430.7999999999993</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B190">
         <v>3500</v>
@@ -7596,33 +7596,33 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E190">
         <v>0.7</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G190">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I190">
-        <v>415.32</v>
+        <v>411.16</v>
       </c>
       <c r="J190">
-        <v>8.54737386569699</v>
+        <v>7.5162756734968097</v>
       </c>
       <c r="K190">
-        <v>4043.42</v>
+        <v>2172.34</v>
       </c>
       <c r="L190">
-        <v>9203.58</v>
+        <v>4545.82</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>3500</v>
@@ -7631,33 +7631,33 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
       </c>
       <c r="G191">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I191">
-        <v>415.8</v>
+        <v>411.24</v>
       </c>
       <c r="J191">
-        <v>7.3130021195128796</v>
+        <v>7.8576332314507997</v>
       </c>
       <c r="K191">
-        <v>4734.46</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L191">
-        <v>9918.84</v>
+        <v>4553.12</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B192">
         <v>3500</v>
@@ -7666,28 +7666,28 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E192">
         <v>0.7</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G192">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I192">
-        <v>416</v>
+        <v>411.76</v>
       </c>
       <c r="J192">
-        <v>6.7171422494986599</v>
+        <v>7.5751171608101204</v>
       </c>
       <c r="K192">
-        <v>2161.02</v>
+        <v>3920.16</v>
       </c>
       <c r="L192">
-        <v>4566.54</v>
+        <v>8162.02</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -7701,28 +7701,28 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E193">
         <v>0.8</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G193">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I193">
-        <v>416.16</v>
+        <v>411.8</v>
       </c>
       <c r="J193">
-        <v>6.33517166302539</v>
+        <v>7.3566296630998096</v>
       </c>
       <c r="K193">
-        <v>4544.82</v>
+        <v>3320.2</v>
       </c>
       <c r="L193">
-        <v>10163.68</v>
+        <v>8327.58</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -7736,28 +7736,28 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
-        <v>416.4</v>
+        <v>411.96</v>
       </c>
       <c r="J194">
-        <v>7.8993670632525896</v>
+        <v>5.8718310602400701</v>
       </c>
       <c r="K194">
-        <v>4610.7</v>
+        <v>4020.66</v>
       </c>
       <c r="L194">
-        <v>8824.66</v>
+        <v>8916.36</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -7771,33 +7771,33 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E195">
         <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G195">
         <v>0.4</v>
       </c>
       <c r="I195">
-        <v>417.2</v>
+        <v>412.44</v>
       </c>
       <c r="J195">
-        <v>7.5683551713697996</v>
+        <v>6.29018282723165</v>
       </c>
       <c r="K195">
-        <v>4142.12</v>
+        <v>5266.3</v>
       </c>
       <c r="L195">
-        <v>8966.26</v>
+        <v>9838.1</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>3500</v>
@@ -7806,33 +7806,33 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G196">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I196">
-        <v>417.28</v>
+        <v>413.12</v>
       </c>
       <c r="J196">
-        <v>6.9829506657286302</v>
+        <v>6.4765422873629097</v>
       </c>
       <c r="K196">
-        <v>5040.5</v>
+        <v>2622.56</v>
       </c>
       <c r="L196">
-        <v>9802.6</v>
+        <v>5880.66</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>3500</v>
@@ -7841,33 +7841,33 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E197">
         <v>0.8</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197">
         <v>0.2</v>
       </c>
       <c r="I197">
-        <v>417.32</v>
+        <v>413.92</v>
       </c>
       <c r="J197">
-        <v>8.8779276861213496</v>
+        <v>7.4076716989888203</v>
       </c>
       <c r="K197">
-        <v>2183.7399999999998</v>
+        <v>4278.8</v>
       </c>
       <c r="L197">
-        <v>4607.72</v>
+        <v>9976.42</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B198">
         <v>3500</v>
@@ -7876,28 +7876,28 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G198">
         <v>0.4</v>
       </c>
       <c r="I198">
-        <v>417.32</v>
+        <v>414.28</v>
       </c>
       <c r="J198">
-        <v>7.7419377419351498</v>
+        <v>8.4570444009712897</v>
       </c>
       <c r="K198">
-        <v>5172.0200000000004</v>
+        <v>2193.06</v>
       </c>
       <c r="L198">
-        <v>10341.1</v>
+        <v>4584.22</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -7911,33 +7911,33 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G199">
         <v>0.4</v>
       </c>
       <c r="I199">
-        <v>417.96</v>
+        <v>414.28</v>
       </c>
       <c r="J199">
-        <v>7.39177921748208</v>
+        <v>8.1388942737941896</v>
       </c>
       <c r="K199">
-        <v>4199.3999999999996</v>
+        <v>4609.88</v>
       </c>
       <c r="L199">
-        <v>8501.82</v>
+        <v>9981.84</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>3500</v>
@@ -7946,33 +7946,33 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E200">
         <v>0.7</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G200">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I200">
-        <v>418.52</v>
+        <v>415.36</v>
       </c>
       <c r="J200">
-        <v>7.3300477488212801</v>
+        <v>6.1506422428881304</v>
       </c>
       <c r="K200">
-        <v>2371.94</v>
+        <v>3312.72</v>
       </c>
       <c r="L200">
-        <v>5060.88</v>
+        <v>7500.12</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>3500</v>
@@ -7981,7 +7981,7 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E201">
         <v>0.8</v>
@@ -7990,24 +7990,24 @@
         <v>11</v>
       </c>
       <c r="G201">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I201">
-        <v>418.52</v>
+        <v>415.8</v>
       </c>
       <c r="J201">
-        <v>7.36271688984439</v>
+        <v>7.3130021195128796</v>
       </c>
       <c r="K201">
-        <v>1981.92</v>
+        <v>4734.46</v>
       </c>
       <c r="L201">
-        <v>4601.66</v>
+        <v>9918.84</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B202">
         <v>3500</v>
@@ -8016,33 +8016,33 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E202">
         <v>0.7</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G202">
         <v>0.2</v>
       </c>
       <c r="I202">
-        <v>419.6</v>
+        <v>415.96</v>
       </c>
       <c r="J202">
-        <v>8.3330666623998599</v>
+        <v>8.0148861501583397</v>
       </c>
       <c r="K202">
-        <v>4912.6400000000003</v>
+        <v>2158.66</v>
       </c>
       <c r="L202">
-        <v>10291.459999999999</v>
+        <v>5290.04</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B203">
         <v>3500</v>
@@ -8051,33 +8051,33 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G203">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I203">
-        <v>420.04</v>
+        <v>416</v>
       </c>
       <c r="J203">
-        <v>7.39177921748208</v>
+        <v>6.7171422494986599</v>
       </c>
       <c r="K203">
-        <v>4906.9799999999996</v>
+        <v>2161.02</v>
       </c>
       <c r="L203">
-        <v>10191.24</v>
+        <v>4566.54</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>3500</v>
@@ -8086,28 +8086,28 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>420.36</v>
+        <v>416.16</v>
       </c>
       <c r="J204">
-        <v>6.3079632211990502</v>
+        <v>6.33517166302539</v>
       </c>
       <c r="K204">
-        <v>2026.6</v>
+        <v>4544.82</v>
       </c>
       <c r="L204">
-        <v>4613.8999999999996</v>
+        <v>10163.68</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -8121,7 +8121,7 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E205">
         <v>0.8</v>
@@ -8130,19 +8130,19 @@
         <v>12</v>
       </c>
       <c r="G205">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I205">
-        <v>420.4</v>
+        <v>417.32</v>
       </c>
       <c r="J205">
-        <v>7.8892331693264097</v>
+        <v>8.8779276861213496</v>
       </c>
       <c r="K205">
-        <v>2419.2800000000002</v>
+        <v>2183.7399999999998</v>
       </c>
       <c r="L205">
-        <v>4620.26</v>
+        <v>4607.72</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -8156,28 +8156,28 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G206">
         <v>0.4</v>
       </c>
       <c r="I206">
-        <v>420.44</v>
+        <v>417.32</v>
       </c>
       <c r="J206">
-        <v>8.8117194689799305</v>
+        <v>7.7419377419351498</v>
       </c>
       <c r="K206">
-        <v>4809.42</v>
+        <v>5172.0200000000004</v>
       </c>
       <c r="L206">
-        <v>10169.36</v>
+        <v>10341.1</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -8191,33 +8191,33 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207">
         <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G207">
         <v>0.2</v>
       </c>
       <c r="I207">
-        <v>420.8</v>
+        <v>417.52</v>
       </c>
       <c r="J207">
-        <v>7.3321211119293404</v>
+        <v>5.9405050290358199</v>
       </c>
       <c r="K207">
-        <v>4710.1000000000004</v>
+        <v>3900.54</v>
       </c>
       <c r="L207">
-        <v>10113.879999999999</v>
+        <v>7681.4</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B208">
         <v>3500</v>
@@ -8226,33 +8226,33 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E208">
         <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G208">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I208">
-        <v>420.92</v>
+        <v>417.6</v>
       </c>
       <c r="J208">
-        <v>7.6232276628735098</v>
+        <v>6.3498031465550202</v>
       </c>
       <c r="K208">
-        <v>2083.66</v>
+        <v>3242.44</v>
       </c>
       <c r="L208">
-        <v>4989.62</v>
+        <v>7515.12</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B209">
         <v>3500</v>
@@ -8261,28 +8261,28 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G209">
         <v>0.4</v>
       </c>
       <c r="I209">
-        <v>420.92</v>
+        <v>418.08</v>
       </c>
       <c r="J209">
-        <v>6.51410776699311</v>
+        <v>6.2091545318183199</v>
       </c>
       <c r="K209">
-        <v>2450.1999999999998</v>
+        <v>3666.4</v>
       </c>
       <c r="L209">
-        <v>5182.88</v>
+        <v>7830.7</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -8296,42 +8296,42 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E210">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G210">
         <v>0.4</v>
       </c>
       <c r="I210">
-        <v>421.12</v>
+        <v>418.24</v>
       </c>
       <c r="J210">
-        <v>8.3824578734402095</v>
+        <v>6.7957633861104902</v>
       </c>
       <c r="K210">
-        <v>5861.84</v>
+        <v>3920.7</v>
       </c>
       <c r="L210">
-        <v>10663.56</v>
+        <v>7718.2</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B211">
         <v>3500</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E211">
         <v>0.8</v>
@@ -8340,24 +8340,24 @@
         <v>11</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>421.36</v>
+        <v>418.52</v>
       </c>
       <c r="J211">
-        <v>6.2153358718575999</v>
+        <v>7.36271688984439</v>
       </c>
       <c r="K211">
-        <v>3716.5</v>
+        <v>1981.92</v>
       </c>
       <c r="L211">
-        <v>7709.4</v>
+        <v>4601.66</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B212">
         <v>3500</v>
@@ -8366,33 +8366,33 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>421.88</v>
+        <v>418.56</v>
       </c>
       <c r="J212">
-        <v>6.9098191003817098</v>
+        <v>7.1446763397651498</v>
       </c>
       <c r="K212">
-        <v>5180.72</v>
+        <v>2627.88</v>
       </c>
       <c r="L212">
-        <v>9956.7999999999993</v>
+        <v>5344.72</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B213">
         <v>3500</v>
@@ -8401,28 +8401,28 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G213">
         <v>0.2</v>
       </c>
       <c r="I213">
-        <v>422.04</v>
+        <v>419.12</v>
       </c>
       <c r="J213">
-        <v>6.17724857845303</v>
+        <v>5.8536826015765504</v>
       </c>
       <c r="K213">
-        <v>2214.34</v>
+        <v>3644.18</v>
       </c>
       <c r="L213">
-        <v>4580.5200000000004</v>
+        <v>7810.28</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -8436,28 +8436,28 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G214">
         <v>0.2</v>
       </c>
       <c r="I214">
-        <v>422.04</v>
+        <v>419.72</v>
       </c>
       <c r="J214">
-        <v>7.2607437635547996</v>
+        <v>8.0797029648372494</v>
       </c>
       <c r="K214">
-        <v>2123.44</v>
+        <v>2584.52</v>
       </c>
       <c r="L214">
-        <v>4630.2</v>
+        <v>5287.62</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -8468,31 +8468,31 @@
         <v>3500</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I215">
-        <v>422.32</v>
+        <v>419.72</v>
       </c>
       <c r="J215">
-        <v>13.7250719488095</v>
+        <v>6.4250758750383596</v>
       </c>
       <c r="K215">
-        <v>2193.52</v>
+        <v>2487.94</v>
       </c>
       <c r="L215">
-        <v>4128.42</v>
+        <v>5356.72</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -8506,33 +8506,33 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E216">
         <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G216">
         <v>0.4</v>
       </c>
       <c r="I216">
-        <v>422.64</v>
+        <v>420.36</v>
       </c>
       <c r="J216">
-        <v>7.3586955365743902</v>
+        <v>6.3079632211990502</v>
       </c>
       <c r="K216">
-        <v>2525.7399999999998</v>
+        <v>2026.6</v>
       </c>
       <c r="L216">
-        <v>5071.32</v>
+        <v>4613.8999999999996</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B217">
         <v>3500</v>
@@ -8541,109 +8541,109 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E217">
         <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G217">
         <v>0.4</v>
       </c>
       <c r="I217">
-        <v>423.12</v>
+        <v>420.4</v>
       </c>
       <c r="J217">
-        <v>7.0785309210315601</v>
+        <v>7.8892331693264097</v>
       </c>
       <c r="K217">
-        <v>5047.88</v>
+        <v>2419.2800000000002</v>
       </c>
       <c r="L217">
-        <v>10231.66</v>
+        <v>4620.26</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B218">
         <v>3500</v>
       </c>
       <c r="C218" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E218">
         <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G218">
         <v>0.4</v>
       </c>
       <c r="I218">
-        <v>423.44</v>
+        <v>420.56</v>
       </c>
       <c r="J218">
-        <v>16.914088801942601</v>
+        <v>6.9746971260406596</v>
       </c>
       <c r="K218">
-        <v>2107.2199999999998</v>
+        <v>3718.86</v>
       </c>
       <c r="L218">
-        <v>4014.52</v>
+        <v>7725.24</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B219">
         <v>3500</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E219">
         <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G219">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I219">
-        <v>423.92</v>
+        <v>420.84</v>
       </c>
       <c r="J219">
-        <v>8.0095942469016492</v>
+        <v>8.2954445329951998</v>
       </c>
       <c r="K219">
-        <v>4140.8999999999996</v>
+        <v>2318.6999999999998</v>
       </c>
       <c r="L219">
-        <v>8510.98</v>
+        <v>5381.58</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>3500</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
@@ -8652,22 +8652,22 @@
         <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G220">
         <v>0.4</v>
       </c>
       <c r="I220">
-        <v>424.48</v>
+        <v>421.08</v>
       </c>
       <c r="J220">
-        <v>8.4999764705556604</v>
+        <v>6.7315377143710604</v>
       </c>
       <c r="K220">
-        <v>2220.88</v>
+        <v>4085.54</v>
       </c>
       <c r="L220">
-        <v>4639.22</v>
+        <v>8801.02</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -8681,39 +8681,39 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G221">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I221">
-        <v>424.72</v>
+        <v>421.12</v>
       </c>
       <c r="J221">
-        <v>6.8323934312947703</v>
+        <v>7.0445439880804104</v>
       </c>
       <c r="K221">
-        <v>2312.88</v>
+        <v>2360.64</v>
       </c>
       <c r="L221">
-        <v>4619.12</v>
+        <v>5376.08</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>3500</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
@@ -8722,27 +8722,27 @@
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G222">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I222">
-        <v>424.72</v>
+        <v>421.36</v>
       </c>
       <c r="J222">
-        <v>5.7655528789527102</v>
+        <v>6.2153358718575999</v>
       </c>
       <c r="K222">
-        <v>2179.9</v>
+        <v>3716.5</v>
       </c>
       <c r="L222">
-        <v>4679.5</v>
+        <v>7709.4</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B223">
         <v>3500</v>
@@ -8751,28 +8751,28 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E223">
         <v>0.7</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G223">
         <v>0.4</v>
       </c>
       <c r="I223">
-        <v>425.84</v>
+        <v>421.8</v>
       </c>
       <c r="J223">
-        <v>8.9338905298867406</v>
+        <v>5.4442630355264701</v>
       </c>
       <c r="K223">
-        <v>1866.72</v>
+        <v>3271.52</v>
       </c>
       <c r="L223">
-        <v>4701.5</v>
+        <v>7553.46</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -8783,36 +8783,36 @@
         <v>3500</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E224">
         <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G224">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I224">
-        <v>426.28</v>
+        <v>421.96</v>
       </c>
       <c r="J224">
-        <v>8.3331626649189996</v>
+        <v>7.6156680599931601</v>
       </c>
       <c r="K224">
-        <v>3914.26</v>
+        <v>4498.7</v>
       </c>
       <c r="L224">
-        <v>7873.76</v>
+        <v>8891.8799999999992</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B225">
         <v>3500</v>
@@ -8821,28 +8821,28 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G225">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I225">
-        <v>426.36</v>
+        <v>423.12</v>
       </c>
       <c r="J225">
-        <v>6.5322584149741001</v>
+        <v>7.2681221783896799</v>
       </c>
       <c r="K225">
-        <v>4201</v>
+        <v>2467.66</v>
       </c>
       <c r="L225">
-        <v>7839.18</v>
+        <v>5322.64</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -8853,36 +8853,36 @@
         <v>3500</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>426.4</v>
+        <v>424.24</v>
       </c>
       <c r="J226">
-        <v>5.9464274989273997</v>
+        <v>9.6551747783248292</v>
       </c>
       <c r="K226">
-        <v>3601.98</v>
+        <v>3693.44</v>
       </c>
       <c r="L226">
-        <v>7895.98</v>
+        <v>7273.64</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B227">
         <v>3500</v>
@@ -8891,33 +8891,33 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E227">
         <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G227">
         <v>0.4</v>
       </c>
       <c r="I227">
-        <v>426.64</v>
+        <v>425.04</v>
       </c>
       <c r="J227">
-        <v>6.1506422428881304</v>
+        <v>6.4651682112687503</v>
       </c>
       <c r="K227">
-        <v>3358.3</v>
+        <v>2417.86</v>
       </c>
       <c r="L227">
-        <v>7613.86</v>
+        <v>5401.24</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B228">
         <v>3500</v>
@@ -8932,22 +8932,22 @@
         <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G228">
         <v>0.4</v>
       </c>
       <c r="I228">
-        <v>426.72</v>
+        <v>426.16</v>
       </c>
       <c r="J228">
-        <v>7.1078548099971703</v>
+        <v>8.9159632121268793</v>
       </c>
       <c r="K228">
-        <v>2008.84</v>
+        <v>4099.74</v>
       </c>
       <c r="L228">
-        <v>4741.38</v>
+        <v>7444.88</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -8961,28 +8961,28 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E229">
         <v>0.7</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G229">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I229">
-        <v>426.8</v>
+        <v>426.32</v>
       </c>
       <c r="J229">
-        <v>7.2883468633154402</v>
+        <v>7.0694837152369097</v>
       </c>
       <c r="K229">
-        <v>6247.8</v>
+        <v>3484.96</v>
       </c>
       <c r="L229">
-        <v>10767.32</v>
+        <v>7306.5</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -8996,33 +8996,33 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E230">
         <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G230">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I230">
-        <v>427.08</v>
+        <v>426.36</v>
       </c>
       <c r="J230">
-        <v>5.6456709078726899</v>
+        <v>6.5322584149741001</v>
       </c>
       <c r="K230">
-        <v>3372.64</v>
+        <v>4201</v>
       </c>
       <c r="L230">
-        <v>7638.74</v>
+        <v>7839.18</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B231">
         <v>3500</v>
@@ -9034,25 +9034,25 @@
         <v>15</v>
       </c>
       <c r="E231">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G231">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I231">
-        <v>427.16</v>
+        <v>426.4</v>
       </c>
       <c r="J231">
-        <v>6.2236966507052696</v>
+        <v>8.34266144584568</v>
       </c>
       <c r="K231">
-        <v>2145.2399999999998</v>
+        <v>3187.5</v>
       </c>
       <c r="L231">
-        <v>4628.78</v>
+        <v>7376.42</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -9066,28 +9066,28 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G232">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I232">
-        <v>427.2</v>
+        <v>426.6</v>
       </c>
       <c r="J232">
-        <v>6.6932802122726001</v>
+        <v>7.88162419809521</v>
       </c>
       <c r="K232">
-        <v>3299.98</v>
+        <v>3166.54</v>
       </c>
       <c r="L232">
-        <v>7830.78</v>
+        <v>7266.32</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -9101,10 +9101,10 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F233" t="s">
         <v>11</v>
@@ -9113,16 +9113,16 @@
         <v>0.4</v>
       </c>
       <c r="I233">
-        <v>427.24</v>
+        <v>426.64</v>
       </c>
       <c r="J233">
-        <v>6.6198489408747099</v>
+        <v>6.1506422428881304</v>
       </c>
       <c r="K233">
-        <v>5036.5200000000004</v>
+        <v>3358.3</v>
       </c>
       <c r="L233">
-        <v>11592.06</v>
+        <v>7613.86</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -9136,28 +9136,28 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E234">
         <v>0.7</v>
       </c>
       <c r="F234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G234">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I234">
-        <v>427.24</v>
+        <v>426.8</v>
       </c>
       <c r="J234">
-        <v>6.9844398486922303</v>
+        <v>7.2883468633154402</v>
       </c>
       <c r="K234">
-        <v>3137.22</v>
+        <v>6247.8</v>
       </c>
       <c r="L234">
-        <v>7856.48</v>
+        <v>10767.32</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -9171,28 +9171,28 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E235">
         <v>0.8</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G235">
         <v>0.4</v>
       </c>
       <c r="I235">
-        <v>427.4</v>
+        <v>427.08</v>
       </c>
       <c r="J235">
-        <v>6.6</v>
+        <v>5.6456709078726899</v>
       </c>
       <c r="K235">
-        <v>4289.88</v>
+        <v>3372.64</v>
       </c>
       <c r="L235">
-        <v>8158.02</v>
+        <v>7638.74</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -9206,28 +9206,28 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E236">
         <v>0.7</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G236">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I236">
-        <v>427.68</v>
+        <v>427.24</v>
       </c>
       <c r="J236">
-        <v>6.2783437306346901</v>
+        <v>6.6198489408747099</v>
       </c>
       <c r="K236">
-        <v>3299.96</v>
+        <v>5036.5200000000004</v>
       </c>
       <c r="L236">
-        <v>7615.02</v>
+        <v>11592.06</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -9241,28 +9241,28 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G237">
         <v>0.4</v>
       </c>
       <c r="I237">
-        <v>427.8</v>
+        <v>427.36</v>
       </c>
       <c r="J237">
-        <v>6.1220911460055802</v>
+        <v>5.0190038852345902</v>
       </c>
       <c r="K237">
-        <v>3571.16</v>
+        <v>3446.44</v>
       </c>
       <c r="L237">
-        <v>7918.04</v>
+        <v>7278.64</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -9276,28 +9276,28 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E238">
         <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G238">
         <v>0.2</v>
       </c>
       <c r="I238">
-        <v>427.84</v>
+        <v>427.44</v>
       </c>
       <c r="J238">
-        <v>6.33517166302539</v>
+        <v>7.4516038542048104</v>
       </c>
       <c r="K238">
-        <v>3958.12</v>
+        <v>3192.32</v>
       </c>
       <c r="L238">
-        <v>7913.38</v>
+        <v>7364.88</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -9311,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E239">
         <v>0.7</v>
@@ -9346,28 +9346,28 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E240">
         <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I240">
-        <v>428.32</v>
+        <v>428.08</v>
       </c>
       <c r="J240">
-        <v>6.5892032902316799</v>
+        <v>6.7285659690605701</v>
       </c>
       <c r="K240">
-        <v>5729.24</v>
+        <v>4057.26</v>
       </c>
       <c r="L240">
-        <v>10757.38</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -9381,28 +9381,28 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
         <v>12</v>
       </c>
       <c r="G241">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I241">
-        <v>428.52</v>
+        <v>428.32</v>
       </c>
       <c r="J241">
-        <v>6.2457665662430797</v>
+        <v>6.5892032902316799</v>
       </c>
       <c r="K241">
-        <v>4023.74</v>
+        <v>5729.24</v>
       </c>
       <c r="L241">
-        <v>7607.06</v>
+        <v>10757.38</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -9416,28 +9416,28 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E242">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G242">
         <v>0.2</v>
       </c>
       <c r="I242">
-        <v>428.68</v>
+        <v>428.52</v>
       </c>
       <c r="J242">
-        <v>6.9352433266612898</v>
+        <v>6.2457665662430797</v>
       </c>
       <c r="K242">
-        <v>4624.24</v>
+        <v>4023.74</v>
       </c>
       <c r="L242">
-        <v>8470.82</v>
+        <v>7607.06</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -9451,28 +9451,28 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E243">
         <v>0.7</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G243">
         <v>0.4</v>
       </c>
       <c r="I243">
-        <v>429.56</v>
+        <v>429.48</v>
       </c>
       <c r="J243">
-        <v>9.4173456982315304</v>
+        <v>8.8255084839345006</v>
       </c>
       <c r="K243">
-        <v>2127.7399999999998</v>
+        <v>2459.3000000000002</v>
       </c>
       <c r="L243">
-        <v>3971.16</v>
+        <v>4661.78</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -9486,28 +9486,28 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G244">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I244">
-        <v>430.56</v>
+        <v>429.56</v>
       </c>
       <c r="J244">
-        <v>8.09977777472937</v>
+        <v>9.4173456982315304</v>
       </c>
       <c r="K244">
-        <v>2085.6999999999998</v>
+        <v>2127.7399999999998</v>
       </c>
       <c r="L244">
-        <v>4012.66</v>
+        <v>3971.16</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -9521,28 +9521,28 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G245">
         <v>0.4</v>
       </c>
       <c r="I245">
-        <v>430.6</v>
+        <v>429.8</v>
       </c>
       <c r="J245">
-        <v>6.30238050263549</v>
+        <v>7.6341338735969204</v>
       </c>
       <c r="K245">
-        <v>2084.08</v>
+        <v>1817.96</v>
       </c>
       <c r="L245">
-        <v>4001.04</v>
+        <v>4291.8999999999996</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -9556,28 +9556,28 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G246">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I246">
-        <v>431.16</v>
+        <v>430.16</v>
       </c>
       <c r="J246">
-        <v>7.3331030266865804</v>
+        <v>8.0083955946244298</v>
       </c>
       <c r="K246">
-        <v>1655.36</v>
+        <v>2468.1</v>
       </c>
       <c r="L246">
-        <v>3973.52</v>
+        <v>4672.6000000000004</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -9591,28 +9591,28 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E247">
         <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G247">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I247">
-        <v>431.28</v>
+        <v>430.28</v>
       </c>
       <c r="J247">
-        <v>6.4839494137446696</v>
+        <v>9.1739631566733397</v>
       </c>
       <c r="K247">
-        <v>2018.3</v>
+        <v>2240.1799999999998</v>
       </c>
       <c r="L247">
-        <v>3948.7</v>
+        <v>4657.16</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -9626,28 +9626,28 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E248">
         <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G248">
         <v>0.4</v>
       </c>
       <c r="I248">
-        <v>431.48</v>
+        <v>431.16</v>
       </c>
       <c r="J248">
-        <v>6.7977643383688902</v>
+        <v>7.3331030266865804</v>
       </c>
       <c r="K248">
-        <v>2419.66</v>
+        <v>1655.36</v>
       </c>
       <c r="L248">
-        <v>4092.12</v>
+        <v>3973.52</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -9661,28 +9661,28 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E249">
         <v>0.7</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G249">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I249">
-        <v>431.64</v>
+        <v>431.16</v>
       </c>
       <c r="J249">
-        <v>6.1278381179662302</v>
+        <v>8.3722398436738494</v>
       </c>
       <c r="K249">
-        <v>1990.1</v>
+        <v>2168.02</v>
       </c>
       <c r="L249">
-        <v>3967.42</v>
+        <v>4673.0200000000004</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -9696,28 +9696,28 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G250">
         <v>0.4</v>
       </c>
       <c r="I250">
-        <v>431.64</v>
+        <v>431.28</v>
       </c>
       <c r="J250">
-        <v>6.1147690062667097</v>
+        <v>6.4839494137446696</v>
       </c>
       <c r="K250">
-        <v>1901.84</v>
+        <v>2018.3</v>
       </c>
       <c r="L250">
-        <v>3985.42</v>
+        <v>3948.7</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -9731,28 +9731,28 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E251">
         <v>0.8</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G251">
         <v>0.4</v>
       </c>
       <c r="I251">
-        <v>431.76</v>
+        <v>431.6</v>
       </c>
       <c r="J251">
-        <v>5.7777504272856897</v>
+        <v>6.3874877690685201</v>
       </c>
       <c r="K251">
-        <v>1997.38</v>
+        <v>2211.6999999999998</v>
       </c>
       <c r="L251">
-        <v>4026.8</v>
+        <v>4277.54</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -9766,28 +9766,28 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E252">
         <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G252">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I252">
-        <v>431.8</v>
+        <v>431.64</v>
       </c>
       <c r="J252">
-        <v>5.3999999999999897</v>
+        <v>6.1147690062667097</v>
       </c>
       <c r="K252">
-        <v>1686.24</v>
+        <v>1901.84</v>
       </c>
       <c r="L252">
-        <v>4006.38</v>
+        <v>3985.42</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -9801,7 +9801,7 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E253">
         <v>0.7</v>
@@ -9836,28 +9836,28 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E254">
         <v>0.8</v>
       </c>
       <c r="F254" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G254">
         <v>0.2</v>
       </c>
       <c r="I254">
-        <v>431.96</v>
+        <v>431.88</v>
       </c>
       <c r="J254">
-        <v>8.3473588637364795</v>
+        <v>7.5937869340665598</v>
       </c>
       <c r="K254">
-        <v>2148.7399999999998</v>
+        <v>1939.88</v>
       </c>
       <c r="L254">
-        <v>3983.8</v>
+        <v>4368.74</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -9871,28 +9871,28 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E255">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G255">
         <v>0.2</v>
       </c>
       <c r="I255">
-        <v>432</v>
+        <v>431.96</v>
       </c>
       <c r="J255">
-        <v>7.3647810558087796</v>
+        <v>8.3473588637364795</v>
       </c>
       <c r="K255">
-        <v>1952.52</v>
+        <v>2148.7399999999998</v>
       </c>
       <c r="L255">
-        <v>4001.54</v>
+        <v>3983.8</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -9906,7 +9906,7 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E256">
         <v>0.8</v>
@@ -9941,28 +9941,28 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E257">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F257" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G257">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I257">
-        <v>432.6</v>
+        <v>432.52</v>
       </c>
       <c r="J257">
-        <v>6.5878676368002402</v>
+        <v>6.3347928142915499</v>
       </c>
       <c r="K257">
-        <v>1669.36</v>
+        <v>1867.3</v>
       </c>
       <c r="L257">
-        <v>4042.5</v>
+        <v>4314.04</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E258">
         <v>0.7</v>
